--- a/output_data/charts/facilities-Columbus-1600000US3918000.xlsx
+++ b/output_data/charts/facilities-Columbus-1600000US3918000.xlsx
@@ -519,7 +519,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +895,13 @@
                   <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>586</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>678</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>678</v>
+        <v>949</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
